--- a/import_battery.xlsx
+++ b/import_battery.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -15,13 +15,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,12 +27,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,17 +53,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -108,7 +122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -140,9 +154,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,6 +189,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -349,16 +365,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>201701</v>
       </c>
@@ -366,7 +382,7 @@
         <v>693.78700000000003</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>201702</v>
       </c>
@@ -374,7 +390,7 @@
         <v>535.87099999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>201703</v>
       </c>
@@ -382,7 +398,7 @@
         <v>456.06799999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>201704</v>
       </c>
@@ -390,7 +406,7 @@
         <v>286.22300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>201705</v>
       </c>
@@ -398,7 +414,7 @@
         <v>510.97500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>201706</v>
       </c>
@@ -406,7 +422,7 @@
         <v>764.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>201707</v>
       </c>
@@ -414,7 +430,7 @@
         <v>467.41399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>201708</v>
       </c>
@@ -422,7 +438,7 @@
         <v>338.07400000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>201709</v>
       </c>
@@ -430,7 +446,7 @@
         <v>608.51099999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>201710</v>
       </c>
@@ -438,7 +454,7 @@
         <v>704.83500000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>201711</v>
       </c>
@@ -446,7 +462,7 @@
         <v>390.05200000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>201712</v>
       </c>
@@ -454,7 +470,7 @@
         <v>633.89400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>201801</v>
       </c>
@@ -462,7 +478,7 @@
         <v>575.11199999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>201802</v>
       </c>
@@ -470,7 +486,7 @@
         <v>658.58100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>201803</v>
       </c>
@@ -478,7 +494,7 @@
         <v>761.14300000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>201804</v>
       </c>
@@ -486,7 +502,7 @@
         <v>155.636</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>201805</v>
       </c>
@@ -494,7 +510,7 @@
         <v>544.04300000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>201806</v>
       </c>
@@ -502,7 +518,7 @@
         <v>197.661</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>201807</v>
       </c>
@@ -510,7 +526,7 @@
         <v>743.44500000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>201808</v>
       </c>
@@ -518,7 +534,7 @@
         <v>580.93100000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>201809</v>
       </c>
@@ -526,7 +542,7 @@
         <v>730.49599999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>201810</v>
       </c>
@@ -534,7 +550,7 @@
         <v>653.077</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>201811</v>
       </c>
@@ -542,7 +558,7 @@
         <v>462.428</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>201812</v>
       </c>
@@ -550,7 +566,7 @@
         <v>431.63200000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>201901</v>
       </c>
@@ -558,7 +574,7 @@
         <v>587.91800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>201902</v>
       </c>
@@ -566,7 +582,7 @@
         <v>633.29300000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>201903</v>
       </c>
@@ -574,45 +590,69 @@
         <v>951.16200000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>201904</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>201905</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>201906</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>201907</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B31" s="1">
         <v>755.29399999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>201908</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B32" s="1">
         <v>554.63099999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>201909</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B33" s="1">
         <v>661.90700000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>201910</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B34" s="1">
         <v>932.64599999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>201911</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B35" s="1">
         <v>584.22199999999998</v>
       </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>201912</v>
+      </c>
+      <c r="B36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -621,12 +661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -634,12 +674,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
